--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Ephb1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Ephb1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H2">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N2">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q2">
-        <v>0.1808528181008889</v>
+        <v>0.8682403088817778</v>
       </c>
       <c r="R2">
-        <v>1.627675362908</v>
+        <v>7.814162779936</v>
       </c>
       <c r="S2">
-        <v>0.3950051082067211</v>
+        <v>0.4336526527282647</v>
       </c>
       <c r="T2">
-        <v>0.3950051082067211</v>
+        <v>0.4336526527282647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H3">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N3">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q3">
-        <v>0.05554176705933333</v>
+        <v>0.7293645132713333</v>
       </c>
       <c r="R3">
-        <v>0.499875903534</v>
+        <v>6.564280619442</v>
       </c>
       <c r="S3">
-        <v>0.1213101456623453</v>
+        <v>0.3642895322302301</v>
       </c>
       <c r="T3">
-        <v>0.1213101456623453</v>
+        <v>0.3642895322302301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H4">
         <v>0.242609</v>
       </c>
       <c r="I4">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J4">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N4">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q4">
-        <v>0.1214605245435556</v>
+        <v>0.2198589610257778</v>
       </c>
       <c r="R4">
-        <v>1.093144720892</v>
+        <v>1.978730649232</v>
       </c>
       <c r="S4">
-        <v>0.2652849324880742</v>
+        <v>0.1098110980331032</v>
       </c>
       <c r="T4">
-        <v>0.2652849324880742</v>
+        <v>0.1098110980331032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H5">
         <v>0.242609</v>
       </c>
       <c r="I5">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J5">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,152 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N5">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q5">
-        <v>0.03730178070733334</v>
+        <v>0.1846923282143333</v>
       </c>
       <c r="R5">
-        <v>0.3357160263660001</v>
+        <v>1.662230953929</v>
       </c>
       <c r="S5">
-        <v>0.08147174082951804</v>
+        <v>0.09224671700840208</v>
       </c>
       <c r="T5">
-        <v>0.08147174082951804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.031934</v>
-      </c>
-      <c r="H6">
-        <v>0.095802</v>
-      </c>
-      <c r="I6">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J6">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.501929333333333</v>
-      </c>
-      <c r="N6">
-        <v>4.505788</v>
-      </c>
-      <c r="O6">
-        <v>0.7650463650777426</v>
-      </c>
-      <c r="P6">
-        <v>0.7650463650777426</v>
-      </c>
-      <c r="Q6">
-        <v>0.04796261133066666</v>
-      </c>
-      <c r="R6">
-        <v>0.431663501976</v>
-      </c>
-      <c r="S6">
-        <v>0.1047563243829474</v>
-      </c>
-      <c r="T6">
-        <v>0.1047563243829474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.031934</v>
-      </c>
-      <c r="H7">
-        <v>0.095802</v>
-      </c>
-      <c r="I7">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J7">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.461258</v>
-      </c>
-      <c r="N7">
-        <v>1.383774</v>
-      </c>
-      <c r="O7">
-        <v>0.2349536349222574</v>
-      </c>
-      <c r="P7">
-        <v>0.2349536349222574</v>
-      </c>
-      <c r="Q7">
-        <v>0.014729812972</v>
-      </c>
-      <c r="R7">
-        <v>0.132568316748</v>
-      </c>
-      <c r="S7">
-        <v>0.03217174843039412</v>
-      </c>
-      <c r="T7">
-        <v>0.03217174843039412</v>
+        <v>0.09224671700840208</v>
       </c>
     </row>
   </sheetData>
